--- a/ynf_products/sarees-5001-end.xlsx
+++ b/ynf_products/sarees-5001-end.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aniket.kadam/RubymineProjects/Bandisha/ynf_products/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kartiki.jagtap\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E8CEF4-3CBE-9B4D-ADBD-D0278A6DF28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5994245B-12C0-4B10-B933-7F3C93E12180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{2AF5DEE2-A611-4B7A-85D4-C7F9C8789A17}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2AF5DEE2-A611-4B7A-85D4-C7F9C8789A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8158" uniqueCount="1894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8194" uniqueCount="1896">
   <si>
     <r>
       <rPr>
@@ -6575,6 +6575,12 @@
   </si>
   <si>
     <t>Selected</t>
+  </si>
+  <si>
+    <t>W,T</t>
+  </si>
+  <si>
+    <t>T,MORE POSES</t>
   </si>
 </sst>
 </file>
@@ -6829,9 +6835,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6869,7 +6875,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6975,7 +6981,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7117,7 +7123,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7127,18 +7133,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEC18A1-EAD4-B94E-9823-42578CEC8602}">
   <dimension ref="A1:BZ380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
       <pane xSplit="3" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM8" sqref="BM8"/>
+      <selection pane="topRight" activeCell="BG299" sqref="BG299:BG308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" customWidth="1"/>
     <col min="4" max="58" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>57</v>
       </c>
@@ -7317,7 +7323,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>122</v>
       </c>
@@ -7408,7 +7414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>135</v>
       </c>
@@ -7496,7 +7502,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>147</v>
       </c>
@@ -7578,7 +7584,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>147</v>
       </c>
@@ -7660,7 +7666,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>147</v>
       </c>
@@ -7751,7 +7757,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>147</v>
       </c>
@@ -7833,7 +7839,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>147</v>
       </c>
@@ -7924,7 +7930,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>1203</v>
       </c>
@@ -8012,7 +8018,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>1214</v>
       </c>
@@ -8103,7 +8109,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>176</v>
       </c>
@@ -8200,7 +8206,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>176</v>
       </c>
@@ -8297,7 +8303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>176</v>
       </c>
@@ -8394,7 +8400,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>135</v>
       </c>
@@ -8482,7 +8488,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>197</v>
       </c>
@@ -8576,7 +8582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>211</v>
       </c>
@@ -8670,7 +8676,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>225</v>
       </c>
@@ -8764,7 +8770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>107</v>
       </c>
@@ -8864,7 +8870,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>107</v>
       </c>
@@ -8964,7 +8970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>107</v>
       </c>
@@ -9064,7 +9070,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>263</v>
       </c>
@@ -9155,7 +9161,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>249</v>
       </c>
@@ -9249,7 +9255,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>249</v>
       </c>
@@ -9343,7 +9349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>249</v>
       </c>
@@ -9437,7 +9443,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>276</v>
       </c>
@@ -9534,7 +9540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>276</v>
       </c>
@@ -9631,7 +9637,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>276</v>
       </c>
@@ -9728,7 +9734,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>291</v>
       </c>
@@ -9819,7 +9825,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>304</v>
       </c>
@@ -9913,7 +9919,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>318</v>
       </c>
@@ -10007,7 +10013,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>332</v>
       </c>
@@ -10086,7 +10092,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>332</v>
       </c>
@@ -10180,7 +10186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>332</v>
       </c>
@@ -10271,7 +10277,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>332</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>332</v>
       </c>
@@ -10429,7 +10435,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>115</v>
       </c>
@@ -10523,7 +10529,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>115</v>
       </c>
@@ -10617,7 +10623,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>115</v>
       </c>
@@ -10711,7 +10717,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>366</v>
       </c>
@@ -10805,7 +10811,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>366</v>
       </c>
@@ -10899,7 +10905,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>366</v>
       </c>
@@ -10993,7 +10999,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>380</v>
       </c>
@@ -11087,7 +11093,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>380</v>
       </c>
@@ -11181,7 +11187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>380</v>
       </c>
@@ -11275,7 +11281,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>394</v>
       </c>
@@ -11363,7 +11369,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>394</v>
       </c>
@@ -11451,7 +11457,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>394</v>
       </c>
@@ -11539,7 +11545,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>394</v>
       </c>
@@ -11627,7 +11633,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>394</v>
       </c>
@@ -11715,7 +11721,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>394</v>
       </c>
@@ -11803,7 +11809,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>411</v>
       </c>
@@ -11894,7 +11900,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>424</v>
       </c>
@@ -12002,7 +12008,7 @@
       <c r="BE52" s="6"/>
       <c r="BF52" s="6"/>
     </row>
-    <row r="53" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>438</v>
       </c>
@@ -12117,7 +12123,7 @@
       <c r="BE53" s="6"/>
       <c r="BF53" s="6"/>
     </row>
-    <row r="54" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>452</v>
       </c>
@@ -12230,7 +12236,7 @@
       <c r="BE54" s="6"/>
       <c r="BF54" s="6"/>
     </row>
-    <row r="55" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>465</v>
       </c>
@@ -12341,7 +12347,7 @@
       <c r="BE55" s="6"/>
       <c r="BF55" s="6"/>
     </row>
-    <row r="56" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>479</v>
       </c>
@@ -12438,7 +12444,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>479</v>
       </c>
@@ -12535,7 +12541,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>479</v>
       </c>
@@ -12632,7 +12638,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
         <v>479</v>
       </c>
@@ -12732,7 +12738,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
         <v>479</v>
       </c>
@@ -12832,7 +12838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
         <v>479</v>
       </c>
@@ -12932,7 +12938,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>503</v>
       </c>
@@ -13017,7 +13023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
         <v>503</v>
       </c>
@@ -13111,7 +13117,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16" t="s">
         <v>503</v>
       </c>
@@ -13196,7 +13202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
         <v>523</v>
       </c>
@@ -13287,7 +13293,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="16" t="s">
         <v>523</v>
       </c>
@@ -13381,7 +13387,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
         <v>543</v>
       </c>
@@ -13469,7 +13475,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="16" t="s">
         <v>543</v>
       </c>
@@ -13563,7 +13569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="16" t="s">
         <v>561</v>
       </c>
@@ -13663,7 +13669,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
         <v>561</v>
       </c>
@@ -13763,7 +13769,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
         <v>561</v>
       </c>
@@ -13863,7 +13869,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
         <v>577</v>
       </c>
@@ -13954,7 +13960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
         <v>590</v>
       </c>
@@ -14054,7 +14060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="16" t="s">
         <v>590</v>
       </c>
@@ -14154,7 +14160,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="16" t="s">
         <v>606</v>
       </c>
@@ -14242,7 +14248,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
         <v>618</v>
       </c>
@@ -14330,7 +14336,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
         <v>618</v>
       </c>
@@ -14418,7 +14424,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="16" t="s">
         <v>618</v>
       </c>
@@ -14506,7 +14512,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="16" t="s">
         <v>618</v>
       </c>
@@ -14594,7 +14600,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
         <v>618</v>
       </c>
@@ -14682,7 +14688,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>618</v>
       </c>
@@ -14770,7 +14776,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
         <v>618</v>
       </c>
@@ -14858,7 +14864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
         <v>618</v>
       </c>
@@ -14946,7 +14952,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="16" t="s">
         <v>618</v>
       </c>
@@ -15034,7 +15040,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
         <v>639</v>
       </c>
@@ -15125,7 +15131,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="16" t="s">
         <v>639</v>
       </c>
@@ -15216,7 +15222,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
         <v>639</v>
       </c>
@@ -15310,7 +15316,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="16" t="s">
         <v>639</v>
       </c>
@@ -15404,7 +15410,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
         <v>656</v>
       </c>
@@ -15498,7 +15504,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="16" t="s">
         <v>670</v>
       </c>
@@ -15598,7 +15604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="16" t="s">
         <v>670</v>
       </c>
@@ -15698,7 +15704,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="16" t="s">
         <v>685</v>
       </c>
@@ -15792,7 +15798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="16" t="s">
         <v>699</v>
       </c>
@@ -15880,7 +15886,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="16" t="s">
         <v>639</v>
       </c>
@@ -15980,7 +15986,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="16" t="s">
         <v>639</v>
       </c>
@@ -16080,7 +16086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="16" t="s">
         <v>720</v>
       </c>
@@ -16174,7 +16180,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="16" t="s">
         <v>720</v>
       </c>
@@ -16268,7 +16274,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="16" t="s">
         <v>720</v>
       </c>
@@ -16362,7 +16368,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="16" t="s">
         <v>720</v>
       </c>
@@ -16456,7 +16462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="16" t="s">
         <v>720</v>
       </c>
@@ -16541,7 +16547,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="16" t="s">
         <v>720</v>
       </c>
@@ -16626,7 +16632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="16" t="s">
         <v>115</v>
       </c>
@@ -16726,7 +16732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="16" t="s">
         <v>115</v>
       </c>
@@ -16826,7 +16832,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="16" t="s">
         <v>115</v>
       </c>
@@ -16926,7 +16932,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="16" t="s">
         <v>753</v>
       </c>
@@ -17026,7 +17032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="16" t="s">
         <v>753</v>
       </c>
@@ -17126,7 +17132,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="16" t="s">
         <v>768</v>
       </c>
@@ -17226,7 +17232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="16" t="s">
         <v>768</v>
       </c>
@@ -17326,7 +17332,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="16" t="s">
         <v>783</v>
       </c>
@@ -17426,7 +17432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="16" t="s">
         <v>783</v>
       </c>
@@ -17526,7 +17532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="16" t="s">
         <v>798</v>
       </c>
@@ -17620,7 +17626,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="16" t="s">
         <v>811</v>
       </c>
@@ -17714,7 +17720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="16" t="s">
         <v>811</v>
       </c>
@@ -17808,7 +17814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="16" t="s">
         <v>824</v>
       </c>
@@ -17908,7 +17914,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="16" t="s">
         <v>824</v>
       </c>
@@ -18008,7 +18014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="16" t="s">
         <v>824</v>
       </c>
@@ -18105,7 +18111,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="16" t="s">
         <v>824</v>
       </c>
@@ -18202,7 +18208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="16" t="s">
         <v>720</v>
       </c>
@@ -18302,7 +18308,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="16" t="s">
         <v>720</v>
       </c>
@@ -18402,7 +18408,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="120" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="16" t="s">
         <v>720</v>
       </c>
@@ -18502,7 +18508,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="16" t="s">
         <v>720</v>
       </c>
@@ -18602,7 +18608,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="16" t="s">
         <v>720</v>
       </c>
@@ -18696,7 +18702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="16" t="s">
         <v>720</v>
       </c>
@@ -18790,7 +18796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="16" t="s">
         <v>720</v>
       </c>
@@ -18890,7 +18896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="16" t="s">
         <v>720</v>
       </c>
@@ -18990,7 +18996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="16" t="s">
         <v>876</v>
       </c>
@@ -19080,7 +19086,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="16" t="s">
         <v>876</v>
       </c>
@@ -19164,7 +19170,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="16" t="s">
         <v>893</v>
       </c>
@@ -19263,7 +19269,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="16" t="s">
         <v>893</v>
       </c>
@@ -19362,7 +19368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="16" t="s">
         <v>893</v>
       </c>
@@ -19461,7 +19467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="16" t="s">
         <v>907</v>
       </c>
@@ -19554,7 +19560,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="16" t="s">
         <v>921</v>
       </c>
@@ -19647,7 +19653,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="16" t="s">
         <v>639</v>
       </c>
@@ -19746,7 +19752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="134" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="16" t="s">
         <v>639</v>
       </c>
@@ -19845,7 +19851,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="16" t="s">
         <v>957</v>
       </c>
@@ -19938,7 +19944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="136" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="16" t="s">
         <v>943</v>
       </c>
@@ -20031,7 +20037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="16" t="s">
         <v>943</v>
       </c>
@@ -20127,7 +20133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="16" t="s">
         <v>943</v>
       </c>
@@ -20223,7 +20229,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="139" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="16" t="s">
         <v>969</v>
       </c>
@@ -20316,7 +20322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="16" t="s">
         <v>969</v>
       </c>
@@ -20409,7 +20415,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="16" t="s">
         <v>991</v>
       </c>
@@ -20508,7 +20514,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="16" t="s">
         <v>991</v>
       </c>
@@ -20607,7 +20613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="16" t="s">
         <v>991</v>
       </c>
@@ -20706,7 +20712,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="144" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="16" t="s">
         <v>1007</v>
       </c>
@@ -20802,7 +20808,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="16" t="s">
         <v>720</v>
       </c>
@@ -20895,7 +20901,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="16" t="s">
         <v>720</v>
       </c>
@@ -20985,7 +20991,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="16" t="s">
         <v>720</v>
       </c>
@@ -21078,7 +21084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="16" t="s">
         <v>720</v>
       </c>
@@ -21171,7 +21177,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="16" t="s">
         <v>1034</v>
       </c>
@@ -21258,7 +21264,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="16" t="s">
         <v>1034</v>
       </c>
@@ -21351,7 +21357,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="151" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="16" t="s">
         <v>1034</v>
       </c>
@@ -21438,7 +21444,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="152" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="16" t="s">
         <v>1058</v>
       </c>
@@ -21528,7 +21534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="16" t="s">
         <v>1058</v>
       </c>
@@ -21618,7 +21624,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A154" s="16" t="s">
         <v>1070</v>
       </c>
@@ -21717,7 +21723,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A155" s="16" t="s">
         <v>1070</v>
       </c>
@@ -21816,7 +21822,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A156" s="16" t="s">
         <v>1070</v>
       </c>
@@ -21909,7 +21915,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A157" s="16" t="s">
         <v>1070</v>
       </c>
@@ -22002,7 +22008,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A158" s="16" t="s">
         <v>1070</v>
       </c>
@@ -22101,7 +22107,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A159" s="16" t="s">
         <v>1070</v>
       </c>
@@ -22200,7 +22206,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A160" s="16" t="s">
         <v>720</v>
       </c>
@@ -22299,7 +22305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A161" s="16" t="s">
         <v>720</v>
       </c>
@@ -22398,7 +22404,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A162" s="16" t="s">
         <v>1107</v>
       </c>
@@ -22497,7 +22503,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A163" s="16" t="s">
         <v>1107</v>
       </c>
@@ -22596,7 +22602,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A164" s="16" t="s">
         <v>720</v>
       </c>
@@ -22692,7 +22698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A165" s="16" t="s">
         <v>720</v>
       </c>
@@ -22788,7 +22794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A166" s="16" t="s">
         <v>1130</v>
       </c>
@@ -22887,7 +22893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A167" s="16" t="s">
         <v>1130</v>
       </c>
@@ -22986,7 +22992,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A168" s="16" t="s">
         <v>1130</v>
       </c>
@@ -23085,7 +23091,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A169" s="16" t="s">
         <v>1130</v>
       </c>
@@ -23184,7 +23190,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A170" s="16" t="s">
         <v>1130</v>
       </c>
@@ -23283,7 +23289,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A171" s="16" t="s">
         <v>1130</v>
       </c>
@@ -23382,7 +23388,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A172" s="16" t="s">
         <v>1163</v>
       </c>
@@ -23481,7 +23487,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A173" s="16" t="s">
         <v>1163</v>
       </c>
@@ -23580,7 +23586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A174" s="16" t="s">
         <v>1227</v>
       </c>
@@ -23674,7 +23680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A175" s="16" t="s">
         <v>1227</v>
       </c>
@@ -23768,7 +23774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A176" s="16" t="s">
         <v>1227</v>
       </c>
@@ -23865,7 +23871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A177" s="16" t="s">
         <v>1227</v>
       </c>
@@ -23962,7 +23968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A178" s="16" t="s">
         <v>1323</v>
       </c>
@@ -24043,8 +24049,11 @@
       <c r="AR178" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="BG178" t="s">
+        <v>1894</v>
+      </c>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A179" s="16" t="s">
         <v>1323</v>
       </c>
@@ -24125,8 +24134,11 @@
       <c r="AR179" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="BG179" t="s">
+        <v>1894</v>
+      </c>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A180" s="16" t="s">
         <v>1323</v>
       </c>
@@ -24207,8 +24219,11 @@
       <c r="AR180" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="BG180" t="s">
+        <v>1894</v>
+      </c>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A181" s="16" t="s">
         <v>1323</v>
       </c>
@@ -24289,8 +24304,11 @@
       <c r="AR181" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="BG181" t="s">
+        <v>1894</v>
+      </c>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A182" s="16" t="s">
         <v>1323</v>
       </c>
@@ -24371,8 +24389,11 @@
       <c r="AR182" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="BG182" t="s">
+        <v>1894</v>
+      </c>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A183" s="16" t="s">
         <v>1344</v>
       </c>
@@ -24451,7 +24472,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A184" s="16" t="s">
         <v>1344</v>
       </c>
@@ -24530,7 +24551,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A185" s="16" t="s">
         <v>1344</v>
       </c>
@@ -24609,7 +24630,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A186" s="16" t="s">
         <v>1344</v>
       </c>
@@ -24688,7 +24709,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A187" s="16" t="s">
         <v>1344</v>
       </c>
@@ -24767,7 +24788,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A188" s="16" t="s">
         <v>1344</v>
       </c>
@@ -24846,7 +24867,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A189" s="16" t="s">
         <v>1250</v>
       </c>
@@ -24940,7 +24961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A190" s="16" t="s">
         <v>1344</v>
       </c>
@@ -25019,7 +25040,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A191" s="16" t="s">
         <v>1365</v>
       </c>
@@ -25099,7 +25120,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A192" s="16" t="s">
         <v>1365</v>
       </c>
@@ -25179,7 +25200,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A193" s="16" t="s">
         <v>1365</v>
       </c>
@@ -25259,7 +25280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A194" s="16" t="s">
         <v>1365</v>
       </c>
@@ -25339,7 +25360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A195" s="16" t="s">
         <v>1379</v>
       </c>
@@ -25419,7 +25440,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A196" s="16" t="s">
         <v>1379</v>
       </c>
@@ -25499,7 +25520,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A197" s="16" t="s">
         <v>1379</v>
       </c>
@@ -25579,7 +25600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A198" s="16" t="s">
         <v>1379</v>
       </c>
@@ -25659,7 +25680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A199" s="16" t="s">
         <v>1379</v>
       </c>
@@ -25739,7 +25760,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A200" s="16" t="s">
         <v>1379</v>
       </c>
@@ -25819,7 +25840,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A201" s="16" t="s">
         <v>1379</v>
       </c>
@@ -25899,7 +25920,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A202" s="16" t="s">
         <v>1379</v>
       </c>
@@ -25979,7 +26000,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A203" s="16" t="s">
         <v>1379</v>
       </c>
@@ -26059,7 +26080,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A204" s="16" t="s">
         <v>1404</v>
       </c>
@@ -26142,7 +26163,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A205" s="16" t="s">
         <v>1404</v>
       </c>
@@ -26225,7 +26246,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A206" s="16" t="s">
         <v>1404</v>
       </c>
@@ -26308,7 +26329,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A207" s="16" t="s">
         <v>1404</v>
       </c>
@@ -26391,7 +26412,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A208" s="16" t="s">
         <v>1404</v>
       </c>
@@ -26474,7 +26495,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A209" s="16" t="s">
         <v>1404</v>
       </c>
@@ -26557,7 +26578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A210" s="16" t="s">
         <v>1473</v>
       </c>
@@ -26637,7 +26658,7 @@
       </c>
       <c r="AT210" s="6"/>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A211" s="16" t="s">
         <v>1473</v>
       </c>
@@ -26717,7 +26738,7 @@
       </c>
       <c r="AT211" s="6"/>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A212" s="16" t="s">
         <v>1473</v>
       </c>
@@ -26797,7 +26818,7 @@
       </c>
       <c r="AT212" s="6"/>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A213" s="16" t="s">
         <v>1473</v>
       </c>
@@ -26877,7 +26898,7 @@
       </c>
       <c r="AT213" s="6"/>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A214" s="16" t="s">
         <v>1473</v>
       </c>
@@ -26957,7 +26978,7 @@
       </c>
       <c r="AT214" s="6"/>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A215" s="16" t="s">
         <v>1473</v>
       </c>
@@ -27037,7 +27058,7 @@
       </c>
       <c r="AT215" s="6"/>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A216" s="16" t="s">
         <v>1473</v>
       </c>
@@ -27117,7 +27138,7 @@
       </c>
       <c r="AT216" s="6"/>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A217" s="16" t="s">
         <v>1473</v>
       </c>
@@ -27197,7 +27218,7 @@
       </c>
       <c r="AT217" s="6"/>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A218" s="16" t="s">
         <v>1473</v>
       </c>
@@ -27277,7 +27298,7 @@
       </c>
       <c r="AT218" s="6"/>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A219" s="16" t="s">
         <v>1496</v>
       </c>
@@ -27360,7 +27381,7 @@
       </c>
       <c r="AT219" s="6"/>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A220" s="16" t="s">
         <v>1496</v>
       </c>
@@ -27440,7 +27461,7 @@
       </c>
       <c r="AT220" s="6"/>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A221" s="16" t="s">
         <v>1496</v>
       </c>
@@ -27523,7 +27544,7 @@
       </c>
       <c r="AT221" s="6"/>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A222" s="16" t="s">
         <v>1496</v>
       </c>
@@ -27606,7 +27627,7 @@
       </c>
       <c r="AT222" s="6"/>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A223" s="16" t="s">
         <v>1496</v>
       </c>
@@ -27689,7 +27710,7 @@
       </c>
       <c r="AT223" s="6"/>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A224" s="16" t="s">
         <v>1496</v>
       </c>
@@ -27772,7 +27793,7 @@
       </c>
       <c r="AT224" s="6"/>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A225" s="16" t="s">
         <v>1520</v>
       </c>
@@ -27852,7 +27873,7 @@
       </c>
       <c r="AT225" s="6"/>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A226" s="16" t="s">
         <v>1520</v>
       </c>
@@ -27932,7 +27953,7 @@
       </c>
       <c r="AT226" s="6"/>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A227" s="16" t="s">
         <v>1520</v>
       </c>
@@ -28012,7 +28033,7 @@
       </c>
       <c r="AT227" s="6"/>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A228" s="16" t="s">
         <v>1520</v>
       </c>
@@ -28092,7 +28113,7 @@
       </c>
       <c r="AT228" s="6"/>
     </row>
-    <row r="229" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A229" s="16" t="s">
         <v>1520</v>
       </c>
@@ -28172,7 +28193,7 @@
       </c>
       <c r="AT229" s="6"/>
     </row>
-    <row r="230" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A230" s="16" t="s">
         <v>1520</v>
       </c>
@@ -28252,7 +28273,7 @@
       </c>
       <c r="AT230" s="6"/>
     </row>
-    <row r="231" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A231" s="16" t="s">
         <v>1520</v>
       </c>
@@ -28332,7 +28353,7 @@
       </c>
       <c r="AT231" s="6"/>
     </row>
-    <row r="232" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A232" s="16" t="s">
         <v>1520</v>
       </c>
@@ -28412,7 +28433,7 @@
       </c>
       <c r="AT232" s="6"/>
     </row>
-    <row r="233" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A233" s="16" t="s">
         <v>1520</v>
       </c>
@@ -28492,7 +28513,7 @@
       </c>
       <c r="AT233" s="6"/>
     </row>
-    <row r="234" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A234" s="16" t="s">
         <v>1545</v>
       </c>
@@ -28572,7 +28593,7 @@
       </c>
       <c r="AT234" s="6"/>
     </row>
-    <row r="235" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A235" s="16" t="s">
         <v>1545</v>
       </c>
@@ -28652,7 +28673,7 @@
       </c>
       <c r="AT235" s="6"/>
     </row>
-    <row r="236" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A236" s="16" t="s">
         <v>1545</v>
       </c>
@@ -28732,7 +28753,7 @@
       </c>
       <c r="AT236" s="6"/>
     </row>
-    <row r="237" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A237" s="16" t="s">
         <v>1545</v>
       </c>
@@ -28812,7 +28833,7 @@
       </c>
       <c r="AT237" s="6"/>
     </row>
-    <row r="238" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A238" s="16" t="s">
         <v>1545</v>
       </c>
@@ -28892,7 +28913,7 @@
       </c>
       <c r="AT238" s="6"/>
     </row>
-    <row r="239" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A239" s="16" t="s">
         <v>1562</v>
       </c>
@@ -28987,7 +29008,7 @@
       </c>
       <c r="AT239" s="6"/>
     </row>
-    <row r="240" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A240" s="16" t="s">
         <v>1576</v>
       </c>
@@ -29073,7 +29094,7 @@
       </c>
       <c r="AT240" s="6"/>
     </row>
-    <row r="241" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A241" s="16" t="s">
         <v>1576</v>
       </c>
@@ -29159,7 +29180,7 @@
       </c>
       <c r="AT241" s="6"/>
     </row>
-    <row r="242" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A242" s="16" t="s">
         <v>1576</v>
       </c>
@@ -29245,7 +29266,7 @@
       </c>
       <c r="AT242" s="6"/>
     </row>
-    <row r="243" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A243" s="16" t="s">
         <v>1576</v>
       </c>
@@ -29331,7 +29352,7 @@
       </c>
       <c r="AT243" s="6"/>
     </row>
-    <row r="244" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A244" s="16" t="s">
         <v>1576</v>
       </c>
@@ -29417,7 +29438,7 @@
       </c>
       <c r="AT244" s="6"/>
     </row>
-    <row r="245" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A245" s="16" t="s">
         <v>1594</v>
       </c>
@@ -29502,8 +29523,11 @@
         <v>83</v>
       </c>
       <c r="AT245" s="6"/>
+      <c r="BG245" t="s">
+        <v>1894</v>
+      </c>
     </row>
-    <row r="246" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A246" s="16" t="s">
         <v>1594</v>
       </c>
@@ -29588,8 +29612,11 @@
         <v>90</v>
       </c>
       <c r="AT246" s="6"/>
+      <c r="BG246" t="s">
+        <v>1894</v>
+      </c>
     </row>
-    <row r="247" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A247" s="16" t="s">
         <v>1594</v>
       </c>
@@ -29674,8 +29701,11 @@
         <v>1472</v>
       </c>
       <c r="AT247" s="6"/>
+      <c r="BG247" t="s">
+        <v>1894</v>
+      </c>
     </row>
-    <row r="248" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A248" s="16" t="s">
         <v>1594</v>
       </c>
@@ -29760,8 +29790,11 @@
         <v>91</v>
       </c>
       <c r="AT248" s="6"/>
+      <c r="BG248" t="s">
+        <v>1894</v>
+      </c>
     </row>
-    <row r="249" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A249" s="16" t="s">
         <v>1594</v>
       </c>
@@ -29846,8 +29879,11 @@
         <v>65</v>
       </c>
       <c r="AT249" s="6"/>
+      <c r="BG249" t="s">
+        <v>1894</v>
+      </c>
     </row>
-    <row r="250" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A250" s="16" t="s">
         <v>1594</v>
       </c>
@@ -29932,8 +29968,11 @@
         <v>70</v>
       </c>
       <c r="AT250" s="6"/>
+      <c r="BG250" t="s">
+        <v>1894</v>
+      </c>
     </row>
-    <row r="251" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A251" s="16" t="s">
         <v>1619</v>
       </c>
@@ -30019,7 +30058,7 @@
       </c>
       <c r="AT251" s="6"/>
     </row>
-    <row r="252" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A252" s="16" t="s">
         <v>1619</v>
       </c>
@@ -30105,7 +30144,7 @@
       </c>
       <c r="AT252" s="6"/>
     </row>
-    <row r="253" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A253" s="16" t="s">
         <v>1619</v>
       </c>
@@ -30191,7 +30230,7 @@
       </c>
       <c r="AT253" s="6"/>
     </row>
-    <row r="254" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A254" s="16" t="s">
         <v>1619</v>
       </c>
@@ -30277,7 +30316,7 @@
       </c>
       <c r="AT254" s="6"/>
     </row>
-    <row r="255" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A255" s="16" t="s">
         <v>1619</v>
       </c>
@@ -30363,7 +30402,7 @@
       </c>
       <c r="AT255" s="6"/>
     </row>
-    <row r="256" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A256" s="16" t="s">
         <v>1619</v>
       </c>
@@ -30449,7 +30488,7 @@
       </c>
       <c r="AT256" s="6"/>
     </row>
-    <row r="257" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A257" s="16" t="s">
         <v>1619</v>
       </c>
@@ -30535,7 +30574,7 @@
       </c>
       <c r="AT257" s="6"/>
     </row>
-    <row r="258" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A258" s="16" t="s">
         <v>1640</v>
       </c>
@@ -30620,8 +30659,11 @@
         <v>83</v>
       </c>
       <c r="AT258" s="6"/>
+      <c r="BG258" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="259" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A259" s="16" t="s">
         <v>1640</v>
       </c>
@@ -30706,8 +30748,11 @@
         <v>82</v>
       </c>
       <c r="AT259" s="6"/>
+      <c r="BG259" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="260" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A260" s="16" t="s">
         <v>1640</v>
       </c>
@@ -30792,8 +30837,11 @@
         <v>75</v>
       </c>
       <c r="AT260" s="6"/>
+      <c r="BG260" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="261" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A261" s="16" t="s">
         <v>1640</v>
       </c>
@@ -30878,8 +30926,11 @@
         <v>72</v>
       </c>
       <c r="AT261" s="6"/>
+      <c r="BG261" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="262" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A262" s="16" t="s">
         <v>1640</v>
       </c>
@@ -30964,8 +31015,11 @@
         <v>70</v>
       </c>
       <c r="AT262" s="6"/>
+      <c r="BG262" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="263" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A263" s="16" t="s">
         <v>1640</v>
       </c>
@@ -31050,8 +31104,11 @@
         <v>77</v>
       </c>
       <c r="AT263" s="6"/>
+      <c r="BG263" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="264" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A264" s="16" t="s">
         <v>1640</v>
       </c>
@@ -31136,8 +31193,11 @@
         <v>73</v>
       </c>
       <c r="AT264" s="6"/>
+      <c r="BG264" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="265" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A265" s="10" t="s">
         <v>1698</v>
       </c>
@@ -31223,7 +31283,7 @@
       </c>
       <c r="AT265" s="6"/>
     </row>
-    <row r="266" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A266" s="10" t="s">
         <v>1698</v>
       </c>
@@ -31309,7 +31369,7 @@
       </c>
       <c r="AT266" s="6"/>
     </row>
-    <row r="267" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A267" s="10" t="s">
         <v>1698</v>
       </c>
@@ -31395,7 +31455,7 @@
       </c>
       <c r="AT267" s="6"/>
     </row>
-    <row r="268" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A268" s="10" t="s">
         <v>1698</v>
       </c>
@@ -31481,7 +31541,7 @@
       </c>
       <c r="AT268" s="6"/>
     </row>
-    <row r="269" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A269" s="10" t="s">
         <v>1698</v>
       </c>
@@ -31567,7 +31627,7 @@
       </c>
       <c r="AT269" s="6"/>
     </row>
-    <row r="270" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A270" s="10" t="s">
         <v>1698</v>
       </c>
@@ -31653,7 +31713,7 @@
       </c>
       <c r="AT270" s="6"/>
     </row>
-    <row r="271" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A271" s="10" t="s">
         <v>1698</v>
       </c>
@@ -31739,7 +31799,7 @@
       </c>
       <c r="AT271" s="6"/>
     </row>
-    <row r="272" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A272" s="10" t="s">
         <v>1698</v>
       </c>
@@ -31825,7 +31885,7 @@
       </c>
       <c r="AT272" s="6"/>
     </row>
-    <row r="273" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A273" s="10" t="s">
         <v>1725</v>
       </c>
@@ -31911,7 +31971,7 @@
       </c>
       <c r="AT273" s="6"/>
     </row>
-    <row r="274" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A274" s="10" t="s">
         <v>1725</v>
       </c>
@@ -31997,7 +32057,7 @@
       </c>
       <c r="AT274" s="6"/>
     </row>
-    <row r="275" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A275" s="10" t="s">
         <v>1725</v>
       </c>
@@ -32083,7 +32143,7 @@
       </c>
       <c r="AT275" s="6"/>
     </row>
-    <row r="276" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A276" s="10" t="s">
         <v>1725</v>
       </c>
@@ -32169,7 +32229,7 @@
       </c>
       <c r="AT276" s="6"/>
     </row>
-    <row r="277" spans="1:46" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:59" ht="18.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="10" t="s">
         <v>1725</v>
       </c>
@@ -32255,7 +32315,7 @@
       </c>
       <c r="AT277" s="6"/>
     </row>
-    <row r="278" spans="1:46" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:59" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="10" t="s">
         <v>1725</v>
       </c>
@@ -32341,7 +32401,7 @@
       </c>
       <c r="AT278" s="6"/>
     </row>
-    <row r="279" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="10" t="s">
         <v>1743</v>
       </c>
@@ -32425,8 +32485,11 @@
         <v>78</v>
       </c>
       <c r="AT279" s="6"/>
+      <c r="BG279" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="280" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="10" t="s">
         <v>1743</v>
       </c>
@@ -32510,8 +32573,11 @@
         <v>79</v>
       </c>
       <c r="AT280" s="6"/>
+      <c r="BG280" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="281" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="10" t="s">
         <v>1743</v>
       </c>
@@ -32595,8 +32661,11 @@
         <v>83</v>
       </c>
       <c r="AT281" s="6"/>
+      <c r="BG281" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="282" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="10" t="s">
         <v>1743</v>
       </c>
@@ -32680,8 +32749,11 @@
         <v>86</v>
       </c>
       <c r="AT282" s="6"/>
+      <c r="BG282" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="283" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="10" t="s">
         <v>1743</v>
       </c>
@@ -32765,8 +32837,11 @@
         <v>82</v>
       </c>
       <c r="AT283" s="6"/>
+      <c r="BG283" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="284" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="10" t="s">
         <v>1743</v>
       </c>
@@ -32850,8 +32925,11 @@
         <v>72</v>
       </c>
       <c r="AT284" s="6"/>
+      <c r="BG284" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="285" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="10" t="s">
         <v>1743</v>
       </c>
@@ -32935,8 +33013,11 @@
         <v>81</v>
       </c>
       <c r="AT285" s="6"/>
+      <c r="BG285" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="286" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="10" t="s">
         <v>1743</v>
       </c>
@@ -33020,8 +33101,11 @@
         <v>73</v>
       </c>
       <c r="AT286" s="6"/>
+      <c r="BG286" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="287" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="10" t="s">
         <v>1766</v>
       </c>
@@ -33106,7 +33190,7 @@
       </c>
       <c r="AT287" s="6"/>
     </row>
-    <row r="288" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="10" t="s">
         <v>1766</v>
       </c>
@@ -33191,7 +33275,7 @@
       </c>
       <c r="AT288" s="6"/>
     </row>
-    <row r="289" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="10" t="s">
         <v>1766</v>
       </c>
@@ -33276,7 +33360,7 @@
       </c>
       <c r="AT289" s="6"/>
     </row>
-    <row r="290" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="10" t="s">
         <v>1766</v>
       </c>
@@ -33361,7 +33445,7 @@
       </c>
       <c r="AT290" s="6"/>
     </row>
-    <row r="291" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="15" t="s">
         <v>1781</v>
       </c>
@@ -33446,7 +33530,7 @@
       </c>
       <c r="AT291" s="12"/>
     </row>
-    <row r="292" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="15" t="s">
         <v>1781</v>
       </c>
@@ -33531,7 +33615,7 @@
       </c>
       <c r="AT292" s="12"/>
     </row>
-    <row r="293" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="15" t="s">
         <v>1781</v>
       </c>
@@ -33616,7 +33700,7 @@
       </c>
       <c r="AT293" s="12"/>
     </row>
-    <row r="294" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="15" t="s">
         <v>1781</v>
       </c>
@@ -33701,7 +33785,7 @@
       </c>
       <c r="AT294" s="12"/>
     </row>
-    <row r="295" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="15" t="s">
         <v>1781</v>
       </c>
@@ -33786,7 +33870,7 @@
       </c>
       <c r="AT295" s="12"/>
     </row>
-    <row r="296" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="15" t="s">
         <v>1781</v>
       </c>
@@ -33871,7 +33955,7 @@
       </c>
       <c r="AT296" s="12"/>
     </row>
-    <row r="297" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="15" t="s">
         <v>1781</v>
       </c>
@@ -33956,7 +34040,7 @@
       </c>
       <c r="AT297" s="12"/>
     </row>
-    <row r="298" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="15" t="s">
         <v>1781</v>
       </c>
@@ -34041,7 +34125,7 @@
       </c>
       <c r="AT298" s="12"/>
     </row>
-    <row r="299" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="10" t="s">
         <v>1823</v>
       </c>
@@ -34125,8 +34209,11 @@
         <v>79</v>
       </c>
       <c r="AT299" s="6"/>
+      <c r="BG299" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="300" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="10" t="s">
         <v>1823</v>
       </c>
@@ -34210,8 +34297,11 @@
         <v>83</v>
       </c>
       <c r="AT300" s="6"/>
+      <c r="BG300" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="301" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="10" t="s">
         <v>1823</v>
       </c>
@@ -34295,8 +34385,11 @@
         <v>90</v>
       </c>
       <c r="AT301" s="6"/>
+      <c r="BG301" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="302" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="10" t="s">
         <v>1823</v>
       </c>
@@ -34380,8 +34473,11 @@
         <v>102</v>
       </c>
       <c r="AT302" s="6"/>
+      <c r="BG302" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="303" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="10" t="s">
         <v>1823</v>
       </c>
@@ -34465,8 +34561,11 @@
         <v>91</v>
       </c>
       <c r="AT303" s="6"/>
+      <c r="BG303" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="304" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="10" t="s">
         <v>1823</v>
       </c>
@@ -34550,8 +34649,11 @@
         <v>104</v>
       </c>
       <c r="AT304" s="6"/>
+      <c r="BG304" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="305" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="10" t="s">
         <v>1823</v>
       </c>
@@ -34635,8 +34737,11 @@
         <v>82</v>
       </c>
       <c r="AT305" s="6"/>
+      <c r="BG305" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="306" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="10" t="s">
         <v>1823</v>
       </c>
@@ -34720,8 +34825,11 @@
         <v>85</v>
       </c>
       <c r="AT306" s="6"/>
+      <c r="BG306" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="307" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="10" t="s">
         <v>1823</v>
       </c>
@@ -34805,8 +34913,11 @@
         <v>72</v>
       </c>
       <c r="AT307" s="6"/>
+      <c r="BG307" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="308" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="10" t="s">
         <v>1823</v>
       </c>
@@ -34890,8 +35001,11 @@
         <v>81</v>
       </c>
       <c r="AT308" s="6"/>
+      <c r="BG308" t="s">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="309" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="10" t="s">
         <v>1804</v>
       </c>
@@ -34976,7 +35090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="310" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="10" t="s">
         <v>1804</v>
       </c>
@@ -35061,7 +35175,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="10" t="s">
         <v>1804</v>
       </c>
@@ -35146,7 +35260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="312" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="10" t="s">
         <v>1804</v>
       </c>
@@ -35231,7 +35345,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="313" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="10" t="s">
         <v>1804</v>
       </c>
@@ -35316,7 +35430,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="314" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="10" t="s">
         <v>1804</v>
       </c>
@@ -35401,7 +35515,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="315" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="16" t="s">
         <v>1265</v>
       </c>
@@ -35492,7 +35606,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="316" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="16" t="s">
         <v>1265</v>
       </c>
@@ -35583,7 +35697,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="317" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="16" t="s">
         <v>1265</v>
       </c>
@@ -35674,7 +35788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="318" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="16" t="s">
         <v>1265</v>
       </c>
@@ -35765,7 +35879,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="319" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="16" t="s">
         <v>1265</v>
       </c>
@@ -35856,7 +35970,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="320" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="16" t="s">
         <v>1265</v>
       </c>
@@ -35947,7 +36061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="321" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="16" t="s">
         <v>1265</v>
       </c>
@@ -36038,7 +36152,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="322" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="16" t="s">
         <v>1265</v>
       </c>
@@ -36129,7 +36243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="323" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="16" t="s">
         <v>1265</v>
       </c>
@@ -36220,7 +36334,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="324" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="16" t="s">
         <v>1265</v>
       </c>
@@ -36311,7 +36425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="325" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="16" t="s">
         <v>1265</v>
       </c>
@@ -36402,7 +36516,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="326" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="16" t="s">
         <v>1265</v>
       </c>
@@ -36493,7 +36607,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="327" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="16" t="s">
         <v>1265</v>
       </c>
@@ -36584,7 +36698,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="328" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="16" t="s">
         <v>1265</v>
       </c>
@@ -36675,7 +36789,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="329" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="16" t="s">
         <v>1265</v>
       </c>
@@ -36766,7 +36880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="330" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="16" t="s">
         <v>1265</v>
       </c>
@@ -36857,7 +36971,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="331" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="16" t="s">
         <v>1265</v>
       </c>
@@ -36948,7 +37062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="332" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="16" t="s">
         <v>1265</v>
       </c>
@@ -37039,7 +37153,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="333" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="16" t="s">
         <v>1265</v>
       </c>
@@ -37130,7 +37244,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="334" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="16" t="s">
         <v>1265</v>
       </c>
@@ -37221,7 +37335,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="335" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="16" t="s">
         <v>1265</v>
       </c>
@@ -37312,7 +37426,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="336" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="16" t="s">
         <v>1265</v>
       </c>
@@ -37403,7 +37517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="337" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="16" t="s">
         <v>1265</v>
       </c>
@@ -37494,7 +37608,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="338" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="16" t="s">
         <v>1265</v>
       </c>
@@ -37585,7 +37699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="339" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="16" t="s">
         <v>1265</v>
       </c>
@@ -37676,7 +37790,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="340" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="16" t="s">
         <v>1265</v>
       </c>
@@ -37767,7 +37881,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="341" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="16" t="s">
         <v>1265</v>
       </c>
@@ -37858,7 +37972,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="342" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="16" t="s">
         <v>1265</v>
       </c>
@@ -37949,7 +38063,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="343" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="16" t="s">
         <v>1265</v>
       </c>
@@ -38040,7 +38154,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="344" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="16" t="s">
         <v>1265</v>
       </c>
@@ -38131,7 +38245,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="345" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="16" t="s">
         <v>1265</v>
       </c>
@@ -38222,7 +38336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="346" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="16" t="s">
         <v>1265</v>
       </c>
@@ -38313,7 +38427,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="347" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="16" t="s">
         <v>1265</v>
       </c>
@@ -38404,7 +38518,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="348" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="16" t="s">
         <v>1265</v>
       </c>
@@ -38495,7 +38609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="349" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="16" t="s">
         <v>1265</v>
       </c>
@@ -38586,7 +38700,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="350" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="16" t="s">
         <v>1177</v>
       </c>
@@ -38678,7 +38792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="351" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="16" t="s">
         <v>1177</v>
       </c>
@@ -38770,7 +38884,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="352" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="16" t="s">
         <v>1177</v>
       </c>
@@ -38862,7 +38976,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="353" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="10" t="s">
         <v>1662</v>
       </c>
@@ -38948,7 +39062,7 @@
       </c>
       <c r="AT353" s="6"/>
     </row>
-    <row r="354" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="10" t="s">
         <v>1662</v>
       </c>
@@ -39034,7 +39148,7 @@
       </c>
       <c r="AT354" s="6"/>
     </row>
-    <row r="355" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="10" t="s">
         <v>1662</v>
       </c>
@@ -39120,7 +39234,7 @@
       </c>
       <c r="AT355" s="6"/>
     </row>
-    <row r="356" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="10" t="s">
         <v>1662</v>
       </c>
@@ -39206,7 +39320,7 @@
       </c>
       <c r="AT356" s="6"/>
     </row>
-    <row r="357" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="10" t="s">
         <v>1677</v>
       </c>
@@ -39292,7 +39406,7 @@
       </c>
       <c r="AT357" s="6"/>
     </row>
-    <row r="358" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="10" t="s">
         <v>1677</v>
       </c>
@@ -39378,7 +39492,7 @@
       </c>
       <c r="AT358" s="6"/>
     </row>
-    <row r="359" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="10" t="s">
         <v>1677</v>
       </c>
@@ -39464,7 +39578,7 @@
       </c>
       <c r="AT359" s="6"/>
     </row>
-    <row r="360" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="10" t="s">
         <v>1677</v>
       </c>
@@ -39550,7 +39664,7 @@
       </c>
       <c r="AT360" s="6"/>
     </row>
-    <row r="361" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="10" t="s">
         <v>1677</v>
       </c>
@@ -39636,7 +39750,7 @@
       </c>
       <c r="AT361" s="6"/>
     </row>
-    <row r="362" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="26" t="s">
         <v>1850</v>
       </c>
@@ -39720,7 +39834,7 @@
       </c>
       <c r="AT362" s="25"/>
     </row>
-    <row r="363" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="26" t="s">
         <v>1850</v>
       </c>
@@ -39804,7 +39918,7 @@
       </c>
       <c r="AT363" s="25"/>
     </row>
-    <row r="364" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="26" t="s">
         <v>1850</v>
       </c>
@@ -39888,7 +40002,7 @@
       </c>
       <c r="AT364" s="25"/>
     </row>
-    <row r="365" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="26" t="s">
         <v>1850</v>
       </c>
@@ -39975,7 +40089,7 @@
       </c>
       <c r="AT365" s="25"/>
     </row>
-    <row r="366" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="26" t="s">
         <v>1850</v>
       </c>
@@ -40059,7 +40173,7 @@
       </c>
       <c r="AT366" s="25"/>
     </row>
-    <row r="367" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="26" t="s">
         <v>1876</v>
       </c>
@@ -40143,7 +40257,7 @@
       </c>
       <c r="AT367" s="25"/>
     </row>
-    <row r="368" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="26" t="s">
         <v>1876</v>
       </c>
@@ -40227,7 +40341,7 @@
       </c>
       <c r="AT368" s="25"/>
     </row>
-    <row r="369" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="26" t="s">
         <v>1876</v>
       </c>
@@ -40311,7 +40425,7 @@
       </c>
       <c r="AT369" s="25"/>
     </row>
-    <row r="370" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="26" t="s">
         <v>1876</v>
       </c>
@@ -40395,7 +40509,7 @@
       </c>
       <c r="AT370" s="25"/>
     </row>
-    <row r="371" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="26" t="s">
         <v>1876</v>
       </c>
@@ -40479,7 +40593,7 @@
       </c>
       <c r="AT371" s="25"/>
     </row>
-    <row r="372" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="16" t="s">
         <v>1430</v>
       </c>
@@ -40563,7 +40677,7 @@
       </c>
       <c r="AT372" s="6"/>
     </row>
-    <row r="373" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="16" t="s">
         <v>1430</v>
       </c>
@@ -40647,7 +40761,7 @@
       </c>
       <c r="AT373" s="6"/>
     </row>
-    <row r="374" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="16" t="s">
         <v>1430</v>
       </c>
@@ -40731,7 +40845,7 @@
       </c>
       <c r="AT374" s="6"/>
     </row>
-    <row r="375" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="16" t="s">
         <v>1430</v>
       </c>
@@ -40815,7 +40929,7 @@
       </c>
       <c r="AT375" s="6"/>
     </row>
-    <row r="376" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="16" t="s">
         <v>1450</v>
       </c>
@@ -40899,7 +41013,7 @@
       </c>
       <c r="AT376" s="6"/>
     </row>
-    <row r="377" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="16" t="s">
         <v>1450</v>
       </c>
@@ -40983,7 +41097,7 @@
       </c>
       <c r="AT377" s="6"/>
     </row>
-    <row r="378" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="16" t="s">
         <v>1450</v>
       </c>
@@ -41067,7 +41181,7 @@
       </c>
       <c r="AT378" s="6"/>
     </row>
-    <row r="379" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="16" t="s">
         <v>1450</v>
       </c>
@@ -41171,7 +41285,7 @@
       <c r="BY379" s="25"/>
       <c r="BZ379" s="25"/>
     </row>
-    <row r="380" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="16" t="s">
         <v>1450</v>
       </c>
